--- a/data/Output/xlsx/spea2/results_autumn_spea2.xlsx
+++ b/data/Output/xlsx/spea2/results_autumn_spea2.xlsx
@@ -160,7 +160,7 @@
     <t>Li-ion</t>
   </si>
   <si>
-    <t>20-90</t>
+    <t>10-90</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.2862899383881012</v>
+        <v>0.2710947027012183</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.252058921774878</v>
+        <v>0.2457275735720101</v>
       </c>
       <c r="K2" t="s">
         <v>47</v>
@@ -651,13 +651,13 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-2.624112304231559</v>
+        <v>-2.558198475018409</v>
       </c>
       <c r="T2">
         <v>-0</v>
       </c>
       <c r="U2">
-        <v>2.624112304231559</v>
+        <v>2.558198475018409</v>
       </c>
       <c r="V2">
         <v>2.764490036231884</v>
@@ -674,7 +674,7 @@
         <v>105.9164436645103</v>
       </c>
       <c r="C3">
-        <v>46.8794384788422</v>
+        <v>47.20900762490795</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3309427879537447</v>
+        <v>0.1774707393938007</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2830179516359054</v>
+        <v>0.2190712647359287</v>
       </c>
       <c r="K3" t="s">
         <v>47</v>
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-2.672086994653665</v>
+        <v>-2.068340449853431</v>
       </c>
       <c r="T3">
         <v>-0</v>
       </c>
       <c r="U3">
-        <v>2.672086994653665</v>
+        <v>2.068340449853431</v>
       </c>
       <c r="V3">
         <v>2.740370018115942</v>
@@ -745,28 +745,28 @@
         <v>122.2299783243869</v>
       </c>
       <c r="C4">
-        <v>33.51900350557388</v>
+        <v>36.8673053756408</v>
       </c>
       <c r="D4">
-        <v>-0.002998244981888831</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.0001499122490944416</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.396434096468033</v>
+        <v>0.386150920631602</v>
       </c>
       <c r="H4">
-        <v>0.0003664754191474736</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3301190256715735</v>
+        <v>0.325987067164372</v>
       </c>
       <c r="K4" t="s">
         <v>47</v>
@@ -790,16 +790,16 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.002998244981888831</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-2.700802456132886</v>
+        <v>-2.666997668110788</v>
       </c>
       <c r="T4">
         <v>-0</v>
       </c>
       <c r="U4">
-        <v>2.700802456132886</v>
+        <v>2.666997668110788</v>
       </c>
       <c r="V4">
         <v>2.701315217391305</v>
@@ -816,28 +816,28 @@
         <v>89.729705482559</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>23.53231703508686</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-0.2940191358716469</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.01470095679358234</v>
       </c>
       <c r="G5">
-        <v>-0.2911455364839606</v>
+        <v>0.2547597074472209</v>
       </c>
       <c r="H5">
-        <v>-0</v>
+        <v>0.02638225046799937</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2164679139429925</v>
       </c>
       <c r="K5" t="s">
         <v>47</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>-0</v>
+        <v>0.2940191358716469</v>
       </c>
       <c r="S5">
-        <v>-0</v>
+        <v>-2.412444271145724</v>
       </c>
       <c r="T5">
         <v>-0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>2.412444271145724</v>
       </c>
       <c r="V5">
         <v>2.70391259057971</v>
@@ -887,19 +887,19 @@
         <v>77.99005802293598</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>9.570888597260158</v>
+        <v>9.285436514784129</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.4785444298630079</v>
+        <v>0.4642718257392064</v>
       </c>
       <c r="G6">
-        <v>-1.147541984754481</v>
+        <v>-1.120827075384393</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>9.570888597260158</v>
+        <v>9.285436514784129</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>103.5154703243746</v>
       </c>
       <c r="C7">
-        <v>67.8544429863008</v>
+        <v>56.42718257392064</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4161097769057666</v>
+        <v>0.3844371392145161</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3468771200762345</v>
+        <v>0.3336801877048801</v>
       </c>
       <c r="K7" t="s">
         <v>47</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-3.350349103844267</v>
+        <v>-3.22286156666745</v>
       </c>
       <c r="T7">
         <v>-0.000619780219780219</v>
       </c>
       <c r="U7">
-        <v>3.350968884064048</v>
+        <v>3.223481346887231</v>
       </c>
       <c r="V7">
         <v>3.352118206521739</v>
@@ -1029,28 +1029,28 @@
         <v>121.4558228816549</v>
       </c>
       <c r="C8">
-        <v>51.10269746707945</v>
+        <v>40.3128747405834</v>
       </c>
       <c r="D8">
-        <v>-2.375567145077077</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.1187783572538539</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.8097158262474401</v>
+        <v>0.4750393771647993</v>
       </c>
       <c r="H8">
-        <v>0.28852646241596</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4907598483642086</v>
+        <v>0.4715306872530915</v>
       </c>
       <c r="K8" t="s">
         <v>47</v>
@@ -1074,16 +1074,16 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>2.375567145077077</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>-3.844972348338813</v>
+        <v>-3.686650082226848</v>
       </c>
       <c r="T8">
         <v>-0.1956725274725275</v>
       </c>
       <c r="U8">
-        <v>4.04064487581134</v>
+        <v>3.882322609699376</v>
       </c>
       <c r="V8">
         <v>4.505302536231884</v>
@@ -1100,19 +1100,19 @@
         <v>83.50490953228045</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>21.87962432944915</v>
       </c>
       <c r="D9">
-        <v>9.570888597260158</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.4785444298630079</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>-1.122599849361763</v>
+        <v>0.1948534570945006</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1173330888022364</v>
+        <v>0.266704079054473</v>
       </c>
       <c r="K9" t="s">
         <v>47</v>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0009629563393100948</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>9.569925640920848</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1148,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-0</v>
+        <v>-1.787806004538305</v>
       </c>
       <c r="T9">
-        <v>-1.405104076627723</v>
+        <v>-1.406067032967033</v>
       </c>
       <c r="U9">
-        <v>1.405104076627723</v>
+        <v>3.193873037505337</v>
       </c>
       <c r="V9">
         <v>4.443215126811594</v>
@@ -1171,19 +1171,19 @@
         <v>83.54949562883922</v>
       </c>
       <c r="C10">
-        <v>67.8544429863008</v>
+        <v>12.94059430675763</v>
       </c>
       <c r="D10">
-        <v>4.429111402739842</v>
+        <v>8.468337150347514</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.2214555701369921</v>
+        <v>0.4234168575173757</v>
       </c>
       <c r="G10">
-        <v>-0.2995401777970936</v>
+        <v>-0.7165145721740773</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2439906145850686</v>
+        <v>0.233987226547891</v>
       </c>
       <c r="K10" t="s">
         <v>47</v>
@@ -1207,10 +1207,10 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.001180069435671172</v>
+        <v>0.1209101523270957</v>
       </c>
       <c r="P10">
-        <v>4.427931333304171</v>
+        <v>8.347426998020419</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1222,10 +1222,10 @@
         <v>-0</v>
       </c>
       <c r="T10">
-        <v>-2.920312238256637</v>
+        <v>-2.800582155365213</v>
       </c>
       <c r="U10">
-        <v>2.920312238256637</v>
+        <v>2.800582155365213</v>
       </c>
       <c r="V10">
         <v>4.400345108695652</v>
@@ -1242,19 +1242,19 @@
         <v>107.5905496651075</v>
       </c>
       <c r="C11">
-        <v>90</v>
+        <v>55.28228005849519</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2.447314105517678</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.1223657052758839</v>
       </c>
       <c r="G11">
-        <v>0.5824568306502161</v>
+        <v>0.1563599339605318</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4857395661761134</v>
+        <v>0.4372167096169811</v>
       </c>
       <c r="K11" t="s">
         <v>47</v>
@@ -1278,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.04900835351330901</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>2.398305752004369</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-0.4019871726752573</v>
+        <v>-0</v>
       </c>
       <c r="T11">
-        <v>-4.112717582417583</v>
+        <v>-4.063709228904274</v>
       </c>
       <c r="U11">
-        <v>4.51470475509284</v>
+        <v>4.063709228904274</v>
       </c>
       <c r="V11">
         <v>4.518040307971015</v>
@@ -1313,7 +1313,7 @@
         <v>111.4679819417473</v>
       </c>
       <c r="C12">
-        <v>87.99006413662372</v>
+        <v>67.51885058608357</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7352493184086152</v>
+        <v>0.6883542443429832</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6131081148009477</v>
+        <v>0.5935685006069344</v>
       </c>
       <c r="K12" t="s">
         <v>47</v>
@@ -1361,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-0.8254651830048836</v>
+        <v>-0.6501716695345792</v>
       </c>
       <c r="T12">
         <v>-4.674841758241758</v>
       </c>
       <c r="U12">
-        <v>5.500306941246642</v>
+        <v>5.325013427776337</v>
       </c>
       <c r="V12">
         <v>5.503898550724638</v>
@@ -1384,28 +1384,28 @@
         <v>140.0245837966475</v>
       </c>
       <c r="C13">
-        <v>83.8627382215993</v>
+        <v>64.26799223841068</v>
       </c>
       <c r="D13">
-        <v>-3.251970013700493</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.1625985006850247</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1.475614181814103</v>
+        <v>1.00814505186336</v>
       </c>
       <c r="H13">
-        <v>0.4553557476875895</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8504389178207294</v>
+        <v>0.8453916752110823</v>
       </c>
       <c r="K13" t="s">
         <v>47</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>3.251970013700493</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>-1.070609289344876</v>
+        <v>-1.034563885939307</v>
       </c>
       <c r="T13">
         <v>-5.002887912087912</v>
       </c>
       <c r="U13">
-        <v>6.073497201432788</v>
+        <v>6.037451798027219</v>
       </c>
       <c r="V13">
         <v>6.075093750000001</v>
@@ -1455,28 +1455,28 @@
         <v>133.8330227159034</v>
       </c>
       <c r="C14">
-        <v>62.24984170637244</v>
+        <v>59.09517280871415</v>
       </c>
       <c r="D14">
-        <v>-0.349168445775509</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.01745842228877545</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1.078380227231205</v>
+        <v>0.99825799327486</v>
       </c>
       <c r="H14">
-        <v>0.04673026853515038</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8597837036270068</v>
+        <v>0.8458703847015092</v>
       </c>
       <c r="K14" t="s">
         <v>47</v>
@@ -1500,16 +1500,16 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>0.349168445775509</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>-1.725521392626228</v>
+        <v>-1.621561109557434</v>
       </c>
       <c r="T14">
         <v>-4.69878021978022</v>
       </c>
       <c r="U14">
-        <v>6.424301612406448</v>
+        <v>6.320341329337654</v>
       </c>
       <c r="V14">
         <v>6.424865036231884</v>
@@ -1526,7 +1526,7 @@
         <v>93.56932221264108</v>
       </c>
       <c r="C15">
-        <v>51.87639251436376</v>
+        <v>50.98736726092697</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.7301246121872098</v>
+        <v>0.36078265426381</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.6086405513362321</v>
+        <v>0.4547480688681488</v>
       </c>
       <c r="K15" t="s">
         <v>47</v>
@@ -1574,13 +1574,13 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-2.276989847975245</v>
+        <v>-0.6323003404638543</v>
       </c>
       <c r="T15">
         <v>-4.227712087912088</v>
       </c>
       <c r="U15">
-        <v>6.504701935887333</v>
+        <v>4.860012428375942</v>
       </c>
       <c r="V15">
         <v>6.50687545289855</v>
@@ -1597,19 +1597,19 @@
         <v>70.86499221514897</v>
       </c>
       <c r="C16">
-        <v>40.49144327448753</v>
+        <v>47.8258655586077</v>
       </c>
       <c r="D16">
-        <v>9.89732664613387</v>
+        <v>7.395326704258101</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.4948663323066935</v>
+        <v>0.3697663352129051</v>
       </c>
       <c r="G16">
-        <v>-0.7951100945746925</v>
+        <v>-0.5843099046081535</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2288102120343288</v>
+        <v>0.2271728306031153</v>
       </c>
       <c r="K16" t="s">
         <v>47</v>
@@ -1633,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.006430750624221382</v>
+        <v>0.02953639672719932</v>
       </c>
       <c r="P16">
-        <v>9.890895895509647</v>
+        <v>7.365790307530903</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>-0</v>
       </c>
       <c r="T16">
-        <v>-3.228818699925229</v>
+        <v>-3.205713053822251</v>
       </c>
       <c r="U16">
-        <v>3.228818699925229</v>
+        <v>3.205713053822251</v>
       </c>
       <c r="V16">
         <v>5.916798913043478</v>
@@ -1668,7 +1668,7 @@
         <v>166.4434092688318</v>
       </c>
       <c r="C17">
-        <v>89.97807650515688</v>
+        <v>84.80249907989821</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.9013384897542123</v>
+        <v>0.8928320734806877</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7514569897426049</v>
+        <v>0.7479126496286364</v>
       </c>
       <c r="K17" t="s">
         <v>47</v>
@@ -1716,13 +1716,13 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-2.91839079855743</v>
+        <v>-2.897096232857662</v>
       </c>
       <c r="T17">
         <v>-1.596398901098901</v>
       </c>
       <c r="U17">
-        <v>4.514789699656331</v>
+        <v>4.493495133956563</v>
       </c>
       <c r="V17">
         <v>4.516841938405797</v>
@@ -1739,7 +1739,7 @@
         <v>128.9514380688834</v>
       </c>
       <c r="C18">
-        <v>75.38612251236972</v>
+        <v>70.3170179156099</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.6723715316008709</v>
+        <v>0.6692481870807426</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5608494388367022</v>
+        <v>0.5595480452866487</v>
       </c>
       <c r="K18" t="s">
         <v>47</v>
@@ -1787,13 +1787,13 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-3.856909559051688</v>
+        <v>-3.846817437788501</v>
       </c>
       <c r="T18">
         <v>-0.4923978021978022</v>
       </c>
       <c r="U18">
-        <v>4.349307361249489</v>
+        <v>4.339215239986303</v>
       </c>
       <c r="V18">
         <v>4.353493659420289</v>
@@ -1810,7 +1810,7 @@
         <v>86.09931164964732</v>
       </c>
       <c r="C19">
-        <v>56.10157471711128</v>
+        <v>51.08293072666739</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-0.5990589319391278</v>
+        <v>-0.2495636030224491</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.007203605196031406</v>
+        <v>0.1528266589113143</v>
       </c>
       <c r="K19" t="s">
         <v>47</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-0.04895194875393043</v>
+        <v>-1.74029013630934</v>
       </c>
       <c r="T19">
         <v>-0.03471428571428571</v>
       </c>
       <c r="U19">
-        <v>0.08366623446821614</v>
+        <v>1.775004422023626</v>
       </c>
       <c r="V19">
         <v>5.965471467391303</v>
@@ -1881,7 +1881,7 @@
         <v>99.52787598991144</v>
       </c>
       <c r="C20">
-        <v>55.85681497334163</v>
+        <v>42.38148004512069</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.1902194303432744</v>
+        <v>0.05449844048697622</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3871088149646738</v>
+        <v>0.3305584025245495</v>
       </c>
       <c r="K20" t="s">
         <v>47</v>
@@ -1929,13 +1929,13 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-3.889451182540184</v>
+        <v>-3.32126451244731</v>
       </c>
       <c r="T20">
         <v>-0</v>
       </c>
       <c r="U20">
-        <v>3.889451182540184</v>
+        <v>3.32126451244731</v>
       </c>
       <c r="V20">
         <v>6.186221014492753</v>
@@ -1952,28 +1952,28 @@
         <v>93.60128767093309</v>
       </c>
       <c r="C21">
-        <v>36.40955906064071</v>
+        <v>25.77515748288414</v>
       </c>
       <c r="D21">
-        <v>-0.003760240031009054</v>
+        <v>-0.01149107936581606</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>0.0001880120015504527</v>
+        <v>0.000574553968290803</v>
       </c>
       <c r="G21">
-        <v>0.1072278640586061</v>
+        <v>0.07771201473781142</v>
       </c>
       <c r="H21">
-        <v>0.0003519633088542369</v>
+        <v>0.001075579825369272</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3068392083287853</v>
+        <v>0.2942394308965729</v>
       </c>
       <c r="K21" t="s">
         <v>47</v>
@@ -1997,16 +1997,16 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>0.003760240031009054</v>
+        <v>0.01149107936581606</v>
       </c>
       <c r="S21">
-        <v>-3.278151572097133</v>
+        <v>-3.143540417211011</v>
       </c>
       <c r="T21">
         <v>-0</v>
       </c>
       <c r="U21">
-        <v>3.278151572097133</v>
+        <v>3.143540417211011</v>
       </c>
       <c r="V21">
         <v>5.604785778985508</v>
@@ -2023,19 +2023,19 @@
         <v>100.1017244434446</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>8.075733674325766</v>
+        <v>3.655061595184461</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0.4037866837162883</v>
+        <v>0.182753079759223</v>
       </c>
       <c r="G22">
-        <v>-1.612816023558119</v>
+        <v>-1.08179574557288</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>8.075733674325766</v>
+        <v>3.655061595184461</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -2094,28 +2094,28 @@
         <v>126.6537162367117</v>
       </c>
       <c r="C23">
-        <v>60.37866837162884</v>
+        <v>28.2753079759223</v>
       </c>
       <c r="D23">
-        <v>-0.5232069116774183</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>0.02616034558387091</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5385885045608036</v>
+        <v>0.3055702186225722</v>
       </c>
       <c r="H23">
-        <v>0.06626609972467803</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4991806979146839</v>
+        <v>0.4297006203257033</v>
       </c>
       <c r="K23" t="s">
         <v>47</v>
@@ -2139,16 +2139,16 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <v>0.5232069116774183</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>-3.941303206466767</v>
+        <v>-3.392720190875463</v>
       </c>
       <c r="T23">
         <v>-0</v>
       </c>
       <c r="U23">
-        <v>3.941303206466767</v>
+        <v>3.392720190875463</v>
       </c>
       <c r="V23">
         <v>4.774904438405797</v>
@@ -2165,28 +2165,28 @@
         <v>85.12846470743519</v>
       </c>
       <c r="C24">
-        <v>38.05611778090791</v>
+        <v>11.31170702154499</v>
       </c>
       <c r="D24">
-        <v>-0.007573497780929639</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>0.000378674889046482</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.368523432079248</v>
+        <v>-0.3367554138234011</v>
       </c>
       <c r="H24">
-        <v>0.0006447202385557075</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3067731968145067</v>
+        <v>0.0131756444544677</v>
       </c>
       <c r="K24" t="s">
         <v>47</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="R24">
-        <v>0.007573497780929639</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>-3.603650058400652</v>
+        <v>-0.1547736647166025</v>
       </c>
       <c r="T24">
         <v>-0</v>
       </c>
       <c r="U24">
-        <v>3.603650058400652</v>
+        <v>0.1547736647166025</v>
       </c>
       <c r="V24">
         <v>3.606088768115942</v>
@@ -2236,7 +2236,7 @@
         <v>99.71725698729442</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>10.53783869796197</v>
       </c>
       <c r="D25">
         <v>0</v>
